--- a/Modulo5/src/out/info_estados/Colorado.xlsx
+++ b/Modulo5/src/out/info_estados/Colorado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="85">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
-  </si>
-  <si>
-    <t>columna_aumentada</t>
+    <t>nuevaColumna</t>
+  </si>
+  <si>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
   </si>
   <si>
     <t>C</t>
@@ -701,14 +704,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3280</v>
       </c>
       <c r="M2">
         <v>8001</v>
@@ -745,14 +748,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2061</v>
       </c>
       <c r="M3">
         <v>8001</v>
@@ -789,14 +792,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="M4">
         <v>8003</v>
@@ -833,14 +836,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M5">
         <v>8003</v>
@@ -877,14 +880,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>6087</v>
       </c>
       <c r="M6">
         <v>8005</v>
@@ -921,14 +924,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>5321</v>
       </c>
       <c r="M7">
         <v>8005</v>
@@ -965,14 +968,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="M8">
         <v>8007</v>
@@ -1009,14 +1012,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>83</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="M9">
         <v>8007</v>
@@ -1053,14 +1056,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <v>8009</v>
@@ -1097,14 +1100,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M11">
         <v>8009</v>
@@ -1141,14 +1144,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M12">
         <v>8011</v>
@@ -1185,14 +1188,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M13">
         <v>8011</v>
@@ -1229,14 +1232,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>11143</v>
       </c>
       <c r="M14">
         <v>8013</v>
@@ -1273,14 +1276,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>6355</v>
       </c>
       <c r="M15">
         <v>8013</v>
@@ -1317,14 +1320,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>1011</v>
       </c>
       <c r="M16">
         <v>8014</v>
@@ -1361,14 +1364,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>564</v>
       </c>
       <c r="M17">
         <v>8014</v>
@@ -1405,14 +1408,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>405</v>
       </c>
       <c r="M18">
         <v>8015</v>
@@ -1449,14 +1452,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="M19">
         <v>8015</v>
@@ -1493,14 +1496,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>83</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>8017</v>
@@ -1537,14 +1540,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21">
         <v>8017</v>
@@ -1581,14 +1584,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>83</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M22">
         <v>8019</v>
@@ -1625,14 +1628,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>83</v>
       </c>
       <c r="K23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="M23">
         <v>8019</v>
@@ -1669,14 +1672,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>83</v>
       </c>
       <c r="K24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M24">
         <v>8021</v>
@@ -1713,14 +1716,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>83</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M25">
         <v>8021</v>
@@ -1757,14 +1760,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M26">
         <v>8023</v>
@@ -1801,14 +1804,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="M27">
         <v>8023</v>
@@ -1845,14 +1848,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>83</v>
       </c>
       <c r="K28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M28">
         <v>8025</v>
@@ -1889,14 +1892,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M29">
         <v>8025</v>
@@ -1933,14 +1936,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>83</v>
       </c>
       <c r="K30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M30">
         <v>8027</v>
@@ -1977,14 +1980,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>83</v>
       </c>
       <c r="K31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M31">
         <v>8027</v>
@@ -2021,14 +2024,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>83</v>
       </c>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="M32">
         <v>8029</v>
@@ -2065,14 +2068,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>83</v>
       </c>
       <c r="K33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="M33">
         <v>8029</v>
@@ -2109,14 +2112,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>83</v>
       </c>
       <c r="K34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>14625</v>
       </c>
       <c r="M34">
         <v>8031</v>
@@ -2153,14 +2156,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>83</v>
       </c>
       <c r="K35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>12098</v>
       </c>
       <c r="M35">
         <v>8031</v>
@@ -2197,14 +2200,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>83</v>
       </c>
       <c r="K36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M36">
         <v>8033</v>
@@ -2241,14 +2244,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>83</v>
       </c>
       <c r="K37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M37">
         <v>8033</v>
@@ -2285,14 +2288,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>83</v>
       </c>
       <c r="K38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>2348</v>
       </c>
       <c r="M38">
         <v>8035</v>
@@ -2329,14 +2332,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>83</v>
       </c>
       <c r="K39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>2343</v>
       </c>
       <c r="M39">
         <v>8035</v>
@@ -2373,14 +2376,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>83</v>
       </c>
       <c r="K40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>624</v>
       </c>
       <c r="M40">
         <v>8037</v>
@@ -2417,14 +2420,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>83</v>
       </c>
       <c r="K41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="M41">
         <v>8037</v>
@@ -2461,14 +2464,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>83</v>
       </c>
       <c r="K42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>4955</v>
       </c>
       <c r="M42">
         <v>8041</v>
@@ -2505,14 +2508,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>83</v>
       </c>
       <c r="K43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3110</v>
       </c>
       <c r="M43">
         <v>8041</v>
@@ -2549,14 +2552,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>83</v>
       </c>
       <c r="K44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="M44">
         <v>8039</v>
@@ -2593,14 +2596,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>83</v>
       </c>
       <c r="K45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="M45">
         <v>8039</v>
@@ -2637,14 +2640,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>83</v>
       </c>
       <c r="K46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="M46">
         <v>8043</v>
@@ -2681,14 +2684,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>83</v>
       </c>
       <c r="K47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="M47">
         <v>8043</v>
@@ -2725,14 +2728,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>83</v>
       </c>
       <c r="K48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>735</v>
       </c>
       <c r="M48">
         <v>8045</v>
@@ -2769,14 +2772,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>83</v>
       </c>
       <c r="K49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="M49">
         <v>8045</v>
@@ -2813,14 +2816,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>83</v>
       </c>
       <c r="K50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="M50">
         <v>8047</v>
@@ -2857,14 +2860,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>83</v>
       </c>
       <c r="K51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="M51">
         <v>8047</v>
@@ -2901,14 +2904,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>83</v>
       </c>
       <c r="K52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="M52">
         <v>8049</v>
@@ -2945,14 +2948,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M53">
         <v>8049</v>
@@ -2989,14 +2992,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>83</v>
       </c>
       <c r="K54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>482</v>
       </c>
       <c r="M54">
         <v>8051</v>
@@ -3033,14 +3036,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="M55">
         <v>8051</v>
@@ -3077,14 +3080,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>83</v>
       </c>
       <c r="K56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M56">
         <v>8053</v>
@@ -3121,11 +3124,11 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>83</v>
       </c>
       <c r="K57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L57">
         <v>4</v>
@@ -3165,14 +3168,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="M58">
         <v>8055</v>
@@ -3209,14 +3212,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>83</v>
       </c>
       <c r="K59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M59">
         <v>8055</v>
@@ -3253,14 +3256,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M60">
         <v>8057</v>
@@ -3297,14 +3300,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>83</v>
       </c>
       <c r="K61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M61">
         <v>8057</v>
@@ -3341,14 +3344,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>83</v>
       </c>
       <c r="K62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>8282</v>
       </c>
       <c r="M62">
         <v>8059</v>
@@ -3385,14 +3388,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>83</v>
       </c>
       <c r="K63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>5479</v>
       </c>
       <c r="M63">
         <v>8059</v>
@@ -3429,14 +3432,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K64" t="s">
+        <v>84</v>
+      </c>
+      <c r="L64">
         <v>3</v>
-      </c>
-      <c r="K64" t="s">
-        <v>83</v>
-      </c>
-      <c r="L64">
-        <v>4</v>
       </c>
       <c r="M64">
         <v>8061</v>
@@ -3473,14 +3476,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>83</v>
       </c>
       <c r="K65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M65">
         <v>8061</v>
@@ -3517,14 +3520,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>83</v>
       </c>
       <c r="K66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M66">
         <v>8063</v>
@@ -3561,14 +3564,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>83</v>
       </c>
       <c r="K67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M67">
         <v>8063</v>
@@ -3605,14 +3608,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>83</v>
       </c>
       <c r="K68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>1467</v>
       </c>
       <c r="M68">
         <v>8067</v>
@@ -3649,14 +3652,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>83</v>
       </c>
       <c r="K69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>820</v>
       </c>
       <c r="M69">
         <v>8067</v>
@@ -3693,14 +3696,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>83</v>
       </c>
       <c r="K70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="M70">
         <v>8065</v>
@@ -3737,14 +3740,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>83</v>
       </c>
       <c r="K71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M71">
         <v>8065</v>
@@ -3781,14 +3784,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>83</v>
       </c>
       <c r="K72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>6665</v>
       </c>
       <c r="M72">
         <v>8069</v>
@@ -3825,14 +3828,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>83</v>
       </c>
       <c r="K73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3232</v>
       </c>
       <c r="M73">
         <v>8069</v>
@@ -3869,14 +3872,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>83</v>
       </c>
       <c r="K74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="M74">
         <v>8071</v>
@@ -3913,14 +3916,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>83</v>
       </c>
       <c r="K75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M75">
         <v>8071</v>
@@ -3957,14 +3960,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>83</v>
       </c>
       <c r="K76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M76">
         <v>8073</v>
@@ -4001,14 +4004,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>83</v>
       </c>
       <c r="K77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M77">
         <v>8073</v>
@@ -4045,14 +4048,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>83</v>
       </c>
       <c r="K78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M78">
         <v>8075</v>
@@ -4089,14 +4092,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>83</v>
       </c>
       <c r="K79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="M79">
         <v>8075</v>
@@ -4133,14 +4136,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>83</v>
       </c>
       <c r="K80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>1096</v>
       </c>
       <c r="M80">
         <v>8077</v>
@@ -4177,14 +4180,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>83</v>
       </c>
       <c r="K81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>792</v>
       </c>
       <c r="M81">
         <v>8077</v>
@@ -4221,14 +4224,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>83</v>
       </c>
       <c r="K82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M82">
         <v>8079</v>
@@ -4265,14 +4268,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>83</v>
       </c>
       <c r="K83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M83">
         <v>8079</v>
@@ -4309,14 +4312,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>83</v>
       </c>
       <c r="K84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M84">
         <v>8081</v>
@@ -4353,14 +4356,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>83</v>
       </c>
       <c r="K85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M85">
         <v>8081</v>
@@ -4397,14 +4400,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>83</v>
       </c>
       <c r="K86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>413</v>
       </c>
       <c r="M86">
         <v>8083</v>
@@ -4441,14 +4444,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>83</v>
       </c>
       <c r="K87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="M87">
         <v>8083</v>
@@ -4485,14 +4488,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>83</v>
       </c>
       <c r="K88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="M88">
         <v>8085</v>
@@ -4529,14 +4532,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>83</v>
       </c>
       <c r="K89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="M89">
         <v>8085</v>
@@ -4573,14 +4576,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>83</v>
       </c>
       <c r="K90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="M90">
         <v>8087</v>
@@ -4617,14 +4620,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>83</v>
       </c>
       <c r="K91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M91">
         <v>8087</v>
@@ -4661,14 +4664,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>83</v>
       </c>
       <c r="K92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M92">
         <v>8089</v>
@@ -4705,14 +4708,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>83</v>
       </c>
       <c r="K93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="M93">
         <v>8089</v>
@@ -4749,14 +4752,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>83</v>
       </c>
       <c r="K94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="M94">
         <v>8091</v>
@@ -4793,14 +4796,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>83</v>
       </c>
       <c r="K95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M95">
         <v>8091</v>
@@ -4837,14 +4840,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>83</v>
       </c>
       <c r="K96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="M96">
         <v>8093</v>
@@ -4881,14 +4884,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>83</v>
       </c>
       <c r="K97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="M97">
         <v>8093</v>
@@ -4925,14 +4928,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>83</v>
       </c>
       <c r="K98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M98">
         <v>8095</v>
@@ -4969,14 +4972,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>83</v>
       </c>
       <c r="K99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M99">
         <v>8095</v>
@@ -5013,14 +5016,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>83</v>
       </c>
       <c r="K100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="M100">
         <v>8097</v>
@@ -5057,14 +5060,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>83</v>
       </c>
       <c r="K101" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="M101">
         <v>8097</v>
@@ -5101,14 +5104,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>83</v>
       </c>
       <c r="K102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M102">
         <v>8099</v>
@@ -5145,14 +5148,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>83</v>
       </c>
       <c r="K103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M103">
         <v>8099</v>
@@ -5189,14 +5192,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>83</v>
       </c>
       <c r="K104" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>1141</v>
       </c>
       <c r="M104">
         <v>8101</v>
@@ -5233,14 +5236,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>83</v>
       </c>
       <c r="K105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>1261</v>
       </c>
       <c r="M105">
         <v>8101</v>
@@ -5277,14 +5280,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>83</v>
       </c>
       <c r="K106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M106">
         <v>8103</v>
@@ -5321,14 +5324,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>83</v>
       </c>
       <c r="K107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M107">
         <v>8103</v>
@@ -5365,14 +5368,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>83</v>
       </c>
       <c r="K108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M108">
         <v>8105</v>
@@ -5409,14 +5412,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>83</v>
       </c>
       <c r="K109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M109">
         <v>8105</v>
@@ -5453,14 +5456,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>83</v>
       </c>
       <c r="K110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="M110">
         <v>8107</v>
@@ -5497,14 +5500,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>83</v>
       </c>
       <c r="K111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="M111">
         <v>8107</v>
@@ -5541,14 +5544,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>83</v>
       </c>
       <c r="K112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="M112">
         <v>8109</v>
@@ -5585,14 +5588,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>83</v>
       </c>
       <c r="K113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M113">
         <v>8109</v>
@@ -5629,14 +5632,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>83</v>
       </c>
       <c r="K114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M114">
         <v>8111</v>
@@ -5673,14 +5676,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>83</v>
       </c>
       <c r="K115" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M115">
         <v>8111</v>
@@ -5717,14 +5720,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>83</v>
       </c>
       <c r="K116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="M116">
         <v>8113</v>
@@ -5761,14 +5764,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>83</v>
       </c>
       <c r="K117" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="M117">
         <v>8113</v>
@@ -5805,14 +5808,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>83</v>
       </c>
       <c r="K118" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M118">
         <v>8115</v>
@@ -5849,14 +5852,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>83</v>
       </c>
       <c r="K119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M119">
         <v>8115</v>
@@ -5893,14 +5896,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>83</v>
       </c>
       <c r="K120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="M120">
         <v>8117</v>
@@ -5937,14 +5940,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>83</v>
       </c>
       <c r="K121" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="M121">
         <v>8117</v>
@@ -5981,14 +5984,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>83</v>
       </c>
       <c r="K122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="M122">
         <v>8119</v>
@@ -6025,14 +6028,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>83</v>
       </c>
       <c r="K123" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="M123">
         <v>8119</v>
@@ -6069,14 +6072,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>83</v>
       </c>
       <c r="K124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M124">
         <v>8121</v>
@@ -6113,14 +6116,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>83</v>
       </c>
       <c r="K125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M125">
         <v>8121</v>
@@ -6157,14 +6160,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>83</v>
       </c>
       <c r="K126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>1648</v>
       </c>
       <c r="M126">
         <v>8123</v>
@@ -6201,14 +6204,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>83</v>
       </c>
       <c r="K127" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>1044</v>
       </c>
       <c r="M127">
         <v>8123</v>
@@ -6245,14 +6248,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>83</v>
       </c>
       <c r="K128" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M128">
         <v>8125</v>
@@ -6289,14 +6292,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>83</v>
       </c>
       <c r="K129" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M129">
         <v>8125</v>
